--- a/Final Project/LiDAR data/ml_dataset/summary20220515.xlsx
+++ b/Final Project/LiDAR data/ml_dataset/summary20220515.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2FB75C-0195-4F0E-9AAB-C929BC1D34C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F2F6A-EF1E-A042-801A-7CB2B24C2B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>image_name</t>
   </si>
@@ -59,16 +59,12 @@
     <t>Front</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>62 (x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,18 +391,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="1" max="5" width="9.19921875" style="1"/>
+    <col min="6" max="6" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="13" width="9.140625" style="1"/>
+    <col min="9" max="13" width="9.19921875" style="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>61</v>
       </c>
@@ -483,9 +479,9 @@
         <v>1.0722764472607111</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>-13.58716804</v>
@@ -524,7 +520,7 @@
         <v>-22.484120018577201</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>63</v>
       </c>
@@ -568,7 +564,7 @@
         <v>5.39526456821309</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>98</v>
       </c>
@@ -613,7 +609,7 @@
         <v>7.7880497832128501</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>99</v>
       </c>
@@ -658,7 +654,7 @@
         <v>7.5215507838343001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -703,7 +699,7 @@
         <v>18.215051177077903</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -748,7 +744,7 @@
         <v>4.6681285654104698</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>102</v>
       </c>
@@ -793,7 +789,7 @@
         <v>8.7415858044652985</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>103</v>
       </c>
@@ -838,7 +834,7 @@
         <v>11.0120511770779</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>104</v>
       </c>
@@ -883,7 +879,7 @@
         <v>7.51776560994813</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>105</v>
       </c>
@@ -928,7 +924,7 @@
         <v>6.7610687072168005</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>106</v>
       </c>
@@ -973,7 +969,7 @@
         <v>11.340051177077902</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>107</v>
       </c>
@@ -1018,7 +1014,7 @@
         <v>10.022105567228689</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>108</v>
       </c>
@@ -1063,7 +1059,7 @@
         <v>1.6032143693210017</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>109</v>
       </c>
@@ -1108,7 +1104,7 @@
         <v>1.5970074277482009</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>110</v>
       </c>
@@ -1149,7 +1145,7 @@
         <v>5.39526456821309</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>111</v>
       </c>
@@ -1194,7 +1190,7 @@
         <v>5.4908649480404002</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>112</v>
       </c>
@@ -1239,7 +1235,7 @@
         <v>3.4759465020914995</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>113</v>
       </c>
@@ -1284,7 +1280,7 @@
         <v>8.9312567413785295</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>114</v>
       </c>
@@ -1329,7 +1325,7 @@
         <v>3.4348843494117993</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>115</v>
       </c>
@@ -1374,7 +1370,7 @@
         <v>8.6160511770778996</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>116</v>
       </c>
@@ -1419,7 +1415,7 @@
         <v>9.0988578154696</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>117</v>
       </c>
@@ -1460,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>118</v>
       </c>
@@ -1505,7 +1501,7 @@
         <v>14.590301517490801</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>119</v>
       </c>
@@ -1550,7 +1546,7 @@
         <v>10.657961040530409</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>120</v>
       </c>
@@ -1595,7 +1591,7 @@
         <v>6.5644515742271503</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>122</v>
       </c>
@@ -1636,7 +1632,7 @@
         <v>26.565051177077901</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>125</v>
       </c>
@@ -1681,7 +1677,7 @@
         <v>7.2983545812366497</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>126</v>
       </c>
@@ -1726,7 +1722,7 @@
         <v>0.19916902843390005</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>127</v>
       </c>
@@ -1771,7 +1767,7 @@
         <v>8.1760511770779019</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>128</v>
       </c>
@@ -1812,7 +1808,7 @@
         <v>10.542761137434301</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>129</v>
       </c>
@@ -1853,7 +1849,7 @@
         <v>-21.3886228278188</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>130</v>
       </c>
@@ -1898,7 +1894,7 @@
         <v>4.2286965717518967</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>131</v>
       </c>
@@ -1943,7 +1939,7 @@
         <v>0.34805973929822986</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>132</v>
       </c>
@@ -1988,7 +1984,7 @@
         <v>10.807450734063201</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>133</v>
       </c>
@@ -2033,7 +2029,7 @@
         <v>2.8060618249655001</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>134</v>
       </c>
@@ -2078,7 +2074,7 @@
         <v>12.15824550665171</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>135</v>
       </c>
@@ -2119,7 +2115,7 @@
         <v>-6.8113922242292002</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>136</v>
       </c>
@@ -2164,7 +2160,7 @@
         <v>8.1792745035759005</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>137</v>
       </c>
@@ -2209,7 +2205,7 @@
         <v>9.3337656099481308</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <v>138</v>
       </c>
@@ -2250,7 +2246,7 @@
         <v>32.911841538588398</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <v>139</v>
       </c>
@@ -2295,7 +2291,7 @@
         <v>7.9897937429729993</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>140</v>
       </c>
@@ -2340,7 +2336,7 @@
         <v>9.2441046297973006</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <v>141</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>7.1564935677516992</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <v>142</v>
       </c>
@@ -2430,7 +2426,7 @@
         <v>2.1330511770779026</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="1">
         <v>143</v>
       </c>
@@ -2475,7 +2471,7 @@
         <v>5.75901634890179</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
         <v>144</v>
       </c>
@@ -2520,7 +2516,7 @@
         <v>10.217811709759502</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>145</v>
       </c>
@@ -2565,7 +2561,7 @@
         <v>1.7559428654274996</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>148</v>
       </c>
@@ -2610,7 +2606,7 @@
         <v>1.9924052261117398</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>149</v>
       </c>
@@ -2648,7 +2644,7 @@
         <v>-22.087</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>150</v>
       </c>
@@ -2686,7 +2682,7 @@
         <v>26.334</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>151</v>
       </c>
@@ -2727,7 +2723,7 @@
         <v>-20.9734934213207</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>152</v>
       </c>
@@ -2772,7 +2768,7 @@
         <v>9.7146888509751008</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>154</v>
       </c>
@@ -2810,7 +2806,7 @@
         <v>19.577999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <v>155</v>
       </c>
@@ -2848,7 +2844,7 @@
         <v>1.9219999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <v>156</v>
       </c>
@@ -2889,7 +2885,7 @@
         <v>-39.711515177551902</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="1">
         <v>157</v>
       </c>
@@ -2927,7 +2923,7 @@
         <v>16.295000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>159</v>
       </c>
@@ -2968,7 +2964,7 @@
         <v>-46.472774069407997</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <v>160</v>
       </c>
@@ -3013,7 +3009,7 @@
         <v>6.442585804465299</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <v>161</v>
       </c>
@@ -3058,7 +3054,7 @@
         <v>5.7020511770779017</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <v>167</v>
       </c>
@@ -3099,7 +3095,7 @@
         <v>-67.118316678818303</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <v>168</v>
       </c>
@@ -3140,7 +3136,7 @@
         <v>-67.864508121899604</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <v>169</v>
       </c>
@@ -3185,7 +3181,7 @@
         <v>11.476051177077901</v>
       </c>
     </row>
-    <row r="66" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:16">
       <c r="I66" s="1">
         <f>AVERAGE(I2:I64)</f>
         <v>8.8860106287619036</v>
@@ -3203,7 +3199,7 @@
         <v>7.0872638140226822</v>
       </c>
     </row>
-    <row r="67" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:16">
       <c r="I67" s="1" t="s">
         <v>1</v>
       </c>
